--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H2">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I2">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J2">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>1147.868965043646</v>
+        <v>1678.555240860322</v>
       </c>
       <c r="R2">
-        <v>1147.868965043646</v>
+        <v>15106.9971677429</v>
       </c>
       <c r="S2">
-        <v>0.008594140317968806</v>
+        <v>0.01060798269082804</v>
       </c>
       <c r="T2">
-        <v>0.008594140317968806</v>
+        <v>0.01154153529367873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H3">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I3">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J3">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>10011.56394837031</v>
+        <v>11054.35428191263</v>
       </c>
       <c r="R3">
-        <v>10011.56394837031</v>
+        <v>99489.18853721362</v>
       </c>
       <c r="S3">
-        <v>0.07495697505101616</v>
+        <v>0.06986031560135464</v>
       </c>
       <c r="T3">
-        <v>0.07495697505101616</v>
+        <v>0.07600835348625849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H4">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I4">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J4">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>8171.728615149671</v>
+        <v>9283.567970536402</v>
       </c>
       <c r="R4">
-        <v>8171.728615149671</v>
+        <v>83552.11173482762</v>
       </c>
       <c r="S4">
-        <v>0.06118205518021549</v>
+        <v>0.0586694592726666</v>
       </c>
       <c r="T4">
-        <v>0.06118205518021549</v>
+        <v>0.06383264892032667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H5">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I5">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J5">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>9025.871003018216</v>
+        <v>9557.127805763374</v>
       </c>
       <c r="R5">
-        <v>9025.871003018216</v>
+        <v>86014.15025187036</v>
       </c>
       <c r="S5">
-        <v>0.0675770530034976</v>
+        <v>0.06039827815592609</v>
       </c>
       <c r="T5">
-        <v>0.0675770530034976</v>
+        <v>0.06571361203452647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H6">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I6">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J6">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>3557.574153287917</v>
+        <v>4100.214480373593</v>
       </c>
       <c r="R6">
-        <v>3557.574153287917</v>
+        <v>24601.28688224155</v>
       </c>
       <c r="S6">
-        <v>0.0266356983209951</v>
+        <v>0.02591216730775733</v>
       </c>
       <c r="T6">
-        <v>0.0266356983209951</v>
+        <v>0.01879504031599211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H7">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J7">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>3026.290941230554</v>
+        <v>4772.300917276123</v>
       </c>
       <c r="R7">
-        <v>3026.290941230554</v>
+        <v>42950.70825548511</v>
       </c>
       <c r="S7">
-        <v>0.02265795991003585</v>
+        <v>0.03015955882389725</v>
       </c>
       <c r="T7">
-        <v>0.02265795991003585</v>
+        <v>0.03281374251381049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H8">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J8">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>26394.91632509766</v>
+        <v>31428.6380306603</v>
       </c>
       <c r="R8">
-        <v>26394.91632509766</v>
+        <v>282857.7422759426</v>
       </c>
       <c r="S8">
-        <v>0.1976197819498584</v>
+        <v>0.1986198845947228</v>
       </c>
       <c r="T8">
-        <v>0.1976197819498584</v>
+        <v>0.2160993729805427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H9">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J9">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>21544.29559063968</v>
+        <v>26394.11492866846</v>
       </c>
       <c r="R9">
-        <v>21544.29559063968</v>
+        <v>237547.0343580162</v>
       </c>
       <c r="S9">
-        <v>0.1613029927599043</v>
+        <v>0.16680315755324</v>
       </c>
       <c r="T9">
-        <v>0.1613029927599043</v>
+        <v>0.1814826236153576</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H10">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J10">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>23796.19319362899</v>
+        <v>27171.87297964238</v>
       </c>
       <c r="R10">
-        <v>23796.19319362899</v>
+        <v>244546.8568167815</v>
       </c>
       <c r="S10">
-        <v>0.1781630391337967</v>
+        <v>0.1717183630475524</v>
       </c>
       <c r="T10">
-        <v>0.1781630391337967</v>
+        <v>0.1868303904190628</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H11">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J11">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>9379.340988143027</v>
+        <v>11657.32103978103</v>
       </c>
       <c r="R11">
-        <v>9379.340988143027</v>
+        <v>69943.92623868617</v>
       </c>
       <c r="S11">
-        <v>0.07022349675523497</v>
+        <v>0.07367089077630949</v>
       </c>
       <c r="T11">
-        <v>0.07022349675523497</v>
+        <v>0.0534361848551845</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H12">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I12">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J12">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>2.303342836969054</v>
+        <v>5.066094893039557</v>
       </c>
       <c r="R12">
-        <v>2.303342836969054</v>
+        <v>45.59485403735601</v>
       </c>
       <c r="S12">
-        <v>1.724521887439278E-05</v>
+        <v>3.201625161166079E-05</v>
       </c>
       <c r="T12">
-        <v>1.724521887439278E-05</v>
+        <v>3.483383304035517E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H13">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I13">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J13">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>20.08945690631122</v>
+        <v>33.3634582944939</v>
       </c>
       <c r="R13">
-        <v>20.08945690631122</v>
+        <v>300.271124650445</v>
       </c>
       <c r="S13">
-        <v>0.0001504105580187555</v>
+        <v>0.0002108473879672603</v>
       </c>
       <c r="T13">
-        <v>0.0001504105580187555</v>
+        <v>0.0002294029544286664</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H14">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I14">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J14">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>16.3975968900286</v>
+        <v>28.01899820741956</v>
       </c>
       <c r="R14">
-        <v>16.3975968900286</v>
+        <v>252.170983866776</v>
       </c>
       <c r="S14">
-        <v>0.000122769456133032</v>
+        <v>0.0001770719489972279</v>
       </c>
       <c r="T14">
-        <v>0.000122769456133032</v>
+        <v>0.0001926551172296888</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H15">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I15">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J15">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>18.11154056370729</v>
+        <v>28.84463685811645</v>
       </c>
       <c r="R15">
-        <v>18.11154056370729</v>
+        <v>259.601731723048</v>
       </c>
       <c r="S15">
-        <v>0.0001356018201721882</v>
+        <v>0.0001822897460063881</v>
       </c>
       <c r="T15">
-        <v>0.0001356018201721882</v>
+        <v>0.0001983321050313887</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H16">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I16">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J16">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>7.138718087608889</v>
+        <v>12.37497291345684</v>
       </c>
       <c r="R16">
-        <v>7.138718087608889</v>
+        <v>74.24983748074101</v>
       </c>
       <c r="S16">
-        <v>5.344786452432743E-05</v>
+        <v>7.820624264837027E-05</v>
       </c>
       <c r="T16">
-        <v>5.344786452432743E-05</v>
+        <v>5.672584103369619E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H17">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I17">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J17">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>627.4227349752605</v>
+        <v>0.6584859569311112</v>
       </c>
       <c r="R17">
-        <v>627.4227349752605</v>
+        <v>5.92637361238</v>
       </c>
       <c r="S17">
-        <v>0.004697538819560397</v>
+        <v>4.161440424027027E-06</v>
       </c>
       <c r="T17">
-        <v>0.004697538819560397</v>
+        <v>4.527666845457513E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,49 +1529,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H18">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I18">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J18">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>5472.299561324387</v>
+        <v>4.336549003802778</v>
       </c>
       <c r="R18">
-        <v>5472.299561324387</v>
+        <v>39.028941034225</v>
       </c>
       <c r="S18">
-        <v>0.0409713231424396</v>
+        <v>2.74057330080419E-05</v>
       </c>
       <c r="T18">
-        <v>0.0409713231424396</v>
+        <v>2.981756701346593E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1591,49 +1591,49 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H19">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I19">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J19">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>4466.649481195664</v>
+        <v>3.641881416831111</v>
       </c>
       <c r="R19">
-        <v>4466.649481195664</v>
+        <v>32.77693275148</v>
       </c>
       <c r="S19">
-        <v>0.03344198123791813</v>
+        <v>2.301563516729534E-05</v>
       </c>
       <c r="T19">
-        <v>0.03344198123791813</v>
+        <v>2.504111981813928E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H20">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I20">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J20">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>4933.521893792345</v>
+        <v>3.749197104448889</v>
       </c>
       <c r="R20">
-        <v>4933.521893792345</v>
+        <v>33.74277394004</v>
       </c>
       <c r="S20">
-        <v>0.03693747344707628</v>
+        <v>2.369383921384207E-05</v>
       </c>
       <c r="T20">
-        <v>0.03693747344707628</v>
+        <v>2.577900902550976E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.184895</v>
+      </c>
+      <c r="I21">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J21">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.0983795</v>
+      </c>
+      <c r="N21">
+        <v>52.196759</v>
+      </c>
+      <c r="O21">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P21">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q21">
+        <v>1.608486625884167</v>
+      </c>
+      <c r="R21">
+        <v>9.650919755305001</v>
+      </c>
+      <c r="S21">
+        <v>1.016516934948314E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.373168190575356E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H22">
+        <v>185.101749</v>
+      </c>
+      <c r="I22">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J22">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N22">
+        <v>32.052644</v>
+      </c>
+      <c r="O22">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P22">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q22">
+        <v>988.833410745726</v>
+      </c>
+      <c r="R22">
+        <v>5933.000464474356</v>
+      </c>
+      <c r="S22">
+        <v>0.006249140600178784</v>
+      </c>
+      <c r="T22">
+        <v>0.004532729668100805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H23">
+        <v>185.101749</v>
+      </c>
+      <c r="I23">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J23">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N23">
+        <v>211.087055</v>
+      </c>
+      <c r="O23">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P23">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q23">
+        <v>6512.097178626532</v>
+      </c>
+      <c r="R23">
+        <v>39072.58307175919</v>
+      </c>
+      <c r="S23">
+        <v>0.04115456701708201</v>
+      </c>
+      <c r="T23">
+        <v>0.02985090892191378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H24">
+        <v>185.101749</v>
+      </c>
+      <c r="I24">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J24">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N24">
+        <v>177.273224</v>
+      </c>
+      <c r="O24">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P24">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q24">
+        <v>5468.930635544795</v>
+      </c>
+      <c r="R24">
+        <v>32813.58381326877</v>
+      </c>
+      <c r="S24">
+        <v>0.03456205676583148</v>
+      </c>
+      <c r="T24">
+        <v>0.02506912071854914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>81.157058922622</v>
-      </c>
-      <c r="H21">
-        <v>81.157058922622</v>
-      </c>
-      <c r="I21">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="J21">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="N21">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="O21">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="P21">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="Q21">
-        <v>1944.562465845855</v>
-      </c>
-      <c r="R21">
-        <v>1944.562465845855</v>
-      </c>
-      <c r="S21">
-        <v>0.01455901605275935</v>
-      </c>
-      <c r="T21">
-        <v>0.01455901605275935</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H25">
+        <v>185.101749</v>
+      </c>
+      <c r="I25">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J25">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N25">
+        <v>182.496952</v>
+      </c>
+      <c r="O25">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P25">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q25">
+        <v>5630.084167061507</v>
+      </c>
+      <c r="R25">
+        <v>33780.50500236904</v>
+      </c>
+      <c r="S25">
+        <v>0.03558050038405813</v>
+      </c>
+      <c r="T25">
+        <v>0.02580783503128068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H26">
+        <v>185.101749</v>
+      </c>
+      <c r="I26">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J26">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.0983795</v>
+      </c>
+      <c r="N26">
+        <v>52.196759</v>
+      </c>
+      <c r="O26">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P26">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q26">
+        <v>2415.427845757873</v>
+      </c>
+      <c r="R26">
+        <v>9661.71138303149</v>
+      </c>
+      <c r="S26">
+        <v>0.01526480401420148</v>
+      </c>
+      <c r="T26">
+        <v>0.007381412843758153</v>
       </c>
     </row>
   </sheetData>
